--- a/output/fit_clients/fit_round_157.xlsx
+++ b/output/fit_clients/fit_round_157.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2092012254.088861</v>
+        <v>1972546344.748671</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09925602674250741</v>
+        <v>0.0791002416431766</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03515714481475149</v>
+        <v>0.03561928105439142</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1046006135.058928</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1832450583.922933</v>
+        <v>1683930904.029925</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1632020812967045</v>
+        <v>0.1405658647756727</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03376160872478653</v>
+        <v>0.0425033668086204</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>916225306.0341907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3605362045.464129</v>
+        <v>3758333400.186787</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1142791034582605</v>
+        <v>0.1067577668078946</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03345438605790808</v>
+        <v>0.0381504894097913</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>57</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1802681008.919645</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2888443923.292638</v>
+        <v>2665314108.495054</v>
       </c>
       <c r="F5" t="n">
-        <v>0.089874601761497</v>
+        <v>0.06805157905109266</v>
       </c>
       <c r="G5" t="n">
-        <v>0.034880887700937</v>
+        <v>0.04030714072734826</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1444222038.846638</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2522840459.133878</v>
+        <v>2457612933.994874</v>
       </c>
       <c r="F6" t="n">
-        <v>0.142657117515542</v>
+        <v>0.1220749518903774</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05602456928422708</v>
+        <v>0.04798115131053163</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1261420202.543262</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2103482128.325564</v>
+        <v>2852953516.314184</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08668894444478735</v>
+        <v>0.0925996421029536</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04760758734657481</v>
+        <v>0.03450698833121642</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>47</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1051741115.311102</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2399947003.091169</v>
+        <v>3216298559.293036</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1714819273211397</v>
+        <v>0.148258189505373</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02235494701099185</v>
+        <v>0.02522950038884926</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>50</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1199973497.678875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1437260188.01441</v>
+        <v>1439704642.952141</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1554468950055847</v>
+        <v>0.1558921064638837</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02904889949721576</v>
+        <v>0.03728893236735443</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>718630198.6442274</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4539771802.48891</v>
+        <v>5256617305.828771</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2146536829972072</v>
+        <v>0.1311896358694776</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05229418102235577</v>
+        <v>0.03429112636780079</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>67</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2269885964.909754</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2776552179.561427</v>
+        <v>3716754192.916615</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1419032478904177</v>
+        <v>0.1676439439937725</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03618180457048185</v>
+        <v>0.04129520835201735</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>65</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1388276017.142528</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2510189680.953603</v>
+        <v>3038104425.643487</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1267843909569408</v>
+        <v>0.1659763010342532</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04107065318374183</v>
+        <v>0.04532653211857966</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>55</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1255094813.602942</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4064898562.94605</v>
+        <v>3350900089.633649</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07467662711480842</v>
+        <v>0.1004641325772668</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02457946310449889</v>
+        <v>0.02213890533675886</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>53</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2032449333.076899</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2732794107.256623</v>
+        <v>3534223192.290728</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1209581449981914</v>
+        <v>0.141257996590391</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03376636404506211</v>
+        <v>0.03408572599416906</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>50</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1366397107.365683</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1316613257.037549</v>
+        <v>1252822009.079889</v>
       </c>
       <c r="F15" t="n">
-        <v>0.108525410890026</v>
+        <v>0.1049404099874737</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04504485059004248</v>
+        <v>0.0448955353012918</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>658306672.406029</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2807135183.99052</v>
+        <v>2012515460.854097</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09626748387501091</v>
+        <v>0.1058076523388978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04613254130720641</v>
+        <v>0.04615907752924996</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>24</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1403567595.326827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3479814119.121285</v>
+        <v>5220336756.376232</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1224884120720402</v>
+        <v>0.1479453905913073</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04655850825482888</v>
+        <v>0.04387038160313089</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>46</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1739907119.830118</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2444252926.290312</v>
+        <v>2479594146.714291</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1282122373539348</v>
+        <v>0.1308318569972296</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02086884878075386</v>
+        <v>0.03208014906229979</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>51</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1222126533.580019</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1109116285.211022</v>
+        <v>1196821429.414167</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1771108414067305</v>
+        <v>0.1194639176657376</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02565335737485431</v>
+        <v>0.02010481620637735</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>554558198.4002347</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2103633847.719289</v>
+        <v>2083591820.755805</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1173165485511093</v>
+        <v>0.1019920446193076</v>
       </c>
       <c r="G20" t="n">
-        <v>0.023103128573085</v>
+        <v>0.02423937084604956</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1051816939.112163</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1661697073.477899</v>
+        <v>2435983016.038087</v>
       </c>
       <c r="F21" t="n">
-        <v>0.101101176610377</v>
+        <v>0.07441809215009421</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03735870651756631</v>
+        <v>0.04545886516314247</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>830848604.9833996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2834964400.869664</v>
+        <v>3938435259.712483</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1029974618596713</v>
+        <v>0.1308990789852525</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04372333708701794</v>
+        <v>0.05711779328281093</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>43</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1417482271.817595</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1354160549.512423</v>
+        <v>1174732327.814668</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1409596592970192</v>
+        <v>0.1680010127370446</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03513338635082344</v>
+        <v>0.05163379052725871</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>677080285.2387967</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3657560361.259195</v>
+        <v>3542992017.57072</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1074480965728278</v>
+        <v>0.1406243808296069</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02814547197743746</v>
+        <v>0.02692608814497909</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>46</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1828780171.619572</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1403427121.479539</v>
+        <v>1324232867.975172</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09002885427845055</v>
+        <v>0.07874664179273658</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03048105020325374</v>
+        <v>0.02789005881054117</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>701713531.8712031</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>980226663.5903792</v>
+        <v>1313297381.306219</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07747946892837296</v>
+        <v>0.1183056009762578</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02733038055139739</v>
+        <v>0.03492388462258966</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>490113298.9853945</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4373115196.145842</v>
+        <v>2929512176.408831</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1333036254008079</v>
+        <v>0.1019078146701169</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02083176599234724</v>
+        <v>0.01734304463797484</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>36</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2186557589.640573</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3729471504.370511</v>
+        <v>3824835807.016164</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1228611070629614</v>
+        <v>0.09751260635400798</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04702490418932285</v>
+        <v>0.03800225417476224</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>50</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1864735826.688631</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4539168081.073066</v>
+        <v>3889233426.060304</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1064820527290056</v>
+        <v>0.1268916473740796</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02887860193323601</v>
+        <v>0.04659732856947552</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>70</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2269584019.996093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2303035896.498063</v>
+        <v>1664238205.636298</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1085138607765861</v>
+        <v>0.136904434561975</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03492097589657151</v>
+        <v>0.03400880051411152</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1151518020.1844</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>948793728.742861</v>
+        <v>940665526.450615</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08953383251458898</v>
+        <v>0.07740134231465937</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03526584268506142</v>
+        <v>0.0500629177569523</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>474396874.9235528</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1622703093.994903</v>
+        <v>1431191991.654083</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1043210860797466</v>
+        <v>0.1047615858026298</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03753157969589875</v>
+        <v>0.03699586060003933</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>811351640.7427274</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2582208497.635572</v>
+        <v>2712817473.325935</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1541819442682815</v>
+        <v>0.145434029603446</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03932545546370305</v>
+        <v>0.04370197361079273</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>47</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1291104279.99047</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1003317853.350319</v>
+        <v>1492828364.171632</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09611093940105667</v>
+        <v>0.1169613095420872</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02806781235704281</v>
+        <v>0.0265642150054878</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>501658963.9548527</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1077542262.80149</v>
+        <v>1178015168.936353</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1067966812040165</v>
+        <v>0.07825378144442315</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02969238624227499</v>
+        <v>0.03184194021953071</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>538771132.9503883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2156342242.797299</v>
+        <v>3089177952.8246</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1589098354979312</v>
+        <v>0.1175609917300575</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01909733165315284</v>
+        <v>0.02364174301555502</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>39</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1078171170.875942</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2189419112.684947</v>
+        <v>2136934898.030931</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0905286586917808</v>
+        <v>0.08765929591953872</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02832502345866578</v>
+        <v>0.03629766274238129</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>43</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1094709609.650503</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1603682328.564723</v>
+        <v>1708756884.421402</v>
       </c>
       <c r="F38" t="n">
-        <v>0.076253716431207</v>
+        <v>0.09760955226801314</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02810739079448217</v>
+        <v>0.03290009316109362</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>801841198.8541349</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2024837198.355962</v>
+        <v>1872596460.502449</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1393626193898608</v>
+        <v>0.1648584670263187</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02114116645977922</v>
+        <v>0.02149730307438234</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1012418589.913085</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1189845395.351163</v>
+        <v>1544357212.781723</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1173989051038859</v>
+        <v>0.1057307313115127</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03975760158361474</v>
+        <v>0.04511233351998602</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>594922741.4608958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2600452126.387962</v>
+        <v>2049581319.488101</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1067428949327462</v>
+        <v>0.1238614955114367</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04714786911366235</v>
+        <v>0.04256924478262761</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>38</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1300226078.574311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4295643746.410297</v>
+        <v>3377928654.890075</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1131374264835526</v>
+        <v>0.09042987701878569</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03076079154707341</v>
+        <v>0.03369601218642534</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2147821922.789132</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2704160991.413714</v>
+        <v>2543728697.922081</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1848746573425189</v>
+        <v>0.1953292183654521</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0210900796017585</v>
+        <v>0.01616784648057569</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>54</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1352080523.820204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1968849492.725616</v>
+        <v>1698321080.519901</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07508598042702634</v>
+        <v>0.0892705727610055</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02363907083039284</v>
+        <v>0.03481988923770309</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>984424846.4508924</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1880588736.336383</v>
+        <v>1905291331.25352</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1557836570319201</v>
+        <v>0.1534044914165752</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04198204002600953</v>
+        <v>0.04177681830375915</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>940294346.9565064</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5702978214.377133</v>
+        <v>4605520577.244393</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1367781271801198</v>
+        <v>0.1384584243515764</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04806326698477439</v>
+        <v>0.05654966686848604</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>56</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2851489174.194757</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3959598873.765942</v>
+        <v>3649229492.789872</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1282161464057091</v>
+        <v>0.1566928554965875</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05451297596172136</v>
+        <v>0.03856768192043172</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>42</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1979799433.677345</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4196097284.946645</v>
+        <v>4117201060.605629</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09458208119597142</v>
+        <v>0.08521986354106854</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02394850773171496</v>
+        <v>0.03128153007231563</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>54</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2098048665.438565</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1787415519.674055</v>
+        <v>1254822048.528279</v>
       </c>
       <c r="F49" t="n">
-        <v>0.13842084636889</v>
+        <v>0.1540099254178887</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03570126792631964</v>
+        <v>0.03394719475944133</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>893707747.1444613</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2636987319.100554</v>
+        <v>3704129566.554585</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1215632841587769</v>
+        <v>0.1321928519450855</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05117651379690817</v>
+        <v>0.04104909753882759</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>53</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1318493745.173224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1000186211.510218</v>
+        <v>1403005982.07047</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1534534407886579</v>
+        <v>0.1854428372954383</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03911649098283093</v>
+        <v>0.03931862470321025</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>500093189.6662711</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3894719388.88202</v>
+        <v>3561264565.615289</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09038289419277286</v>
+        <v>0.1141337816071207</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04510371332389999</v>
+        <v>0.06209630834967917</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>65</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1947359757.079583</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3422560053.964275</v>
+        <v>2376476412.339832</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1683768497157628</v>
+        <v>0.1465001840338639</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03405638372792945</v>
+        <v>0.02307822714088122</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>45</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1711280030.237891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4870195467.419208</v>
+        <v>3998584534.941833</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1546904179432474</v>
+        <v>0.1603902729796328</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03981524159466691</v>
+        <v>0.04840289243971956</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>53</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2435097866.08524</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4100749634.113691</v>
+        <v>4593803345.202418</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2229943740613904</v>
+        <v>0.2213634571003836</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02934510225792704</v>
+        <v>0.02406393410421597</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2050374796.375951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1415173731.568138</v>
+        <v>1435754203.921098</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1348580801449518</v>
+        <v>0.1375239092037814</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03956610454210732</v>
+        <v>0.0480803980527609</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>707586920.5480131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4224046504.039489</v>
+        <v>3097304428.857175</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1397872847428169</v>
+        <v>0.1543331732303996</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02665902611471529</v>
+        <v>0.02633485952743831</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>50</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2112023359.164924</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1473842920.605837</v>
+        <v>1676782340.452219</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1567378128338021</v>
+        <v>0.1703154181791987</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03795359476386533</v>
+        <v>0.02599737940145229</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>736921493.7904899</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3495934136.38241</v>
+        <v>4308541903.390504</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1053287377174512</v>
+        <v>0.113897328401337</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04066592301612137</v>
+        <v>0.04097887433873303</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1747967068.423853</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2743502867.569078</v>
+        <v>2300962244.544855</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1808151876331379</v>
+        <v>0.2061779610199814</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02713344609105014</v>
+        <v>0.02034236557129322</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>48</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1371751477.193193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3146953168.76972</v>
+        <v>2290980591.69762</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1233821005097637</v>
+        <v>0.1691642087719113</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03105891417814579</v>
+        <v>0.02081323307355977</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1573476550.958063</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1603992049.093506</v>
+        <v>2051477599.758615</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1840111614910933</v>
+        <v>0.1938551412642977</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03578071194827929</v>
+        <v>0.030393899728677</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>801996023.167436</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4299761942.117335</v>
+        <v>4575839912.20174</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06663145222871099</v>
+        <v>0.1017580460660625</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04211869341008746</v>
+        <v>0.03686571399220871</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>44</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2149881020.025869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5196516552.368543</v>
+        <v>5072993083.740051</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1390608615283161</v>
+        <v>0.156057694870881</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03394782141305056</v>
+        <v>0.02304462838914055</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>49</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2598258396.160829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4130621643.242035</v>
+        <v>4544089341.052322</v>
       </c>
       <c r="F65" t="n">
-        <v>0.111945148095889</v>
+        <v>0.165168121049355</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02341008531225894</v>
+        <v>0.02373709646359976</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>56</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2065310832.37443</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5317612062.818976</v>
+        <v>3957251953.510652</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1229086035601647</v>
+        <v>0.1410532551385298</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04568406658998245</v>
+        <v>0.04152730863532857</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>45</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2658806075.586034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3468741506.809404</v>
+        <v>3133607271.950042</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08559867080271338</v>
+        <v>0.07677314627414668</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04701953407396808</v>
+        <v>0.04773360468705791</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>50</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1734370731.976431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5268308263.283744</v>
+        <v>4556947974.776254</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1127253329962777</v>
+        <v>0.1321719767878833</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04904642476202764</v>
+        <v>0.03793671315913313</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>50</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2634154204.251225</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2292540383.411048</v>
+        <v>1561206194.346698</v>
       </c>
       <c r="F69" t="n">
-        <v>0.178191880552572</v>
+        <v>0.1772790085190457</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03837794404576749</v>
+        <v>0.05519174163878513</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1146270234.423932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3261583385.056937</v>
+        <v>2832680629.110842</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07172546793994482</v>
+        <v>0.07991023139009773</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04843900760775067</v>
+        <v>0.03112919269383365</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>45</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1630791686.467342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4105019587.586729</v>
+        <v>4048661614.223803</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1457753625003213</v>
+        <v>0.1308176164978168</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03110328331271222</v>
+        <v>0.02696602257234537</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>57</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2052509832.634887</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1765021721.211285</v>
+        <v>1941037517.520491</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06622454000948605</v>
+        <v>0.1085060916938553</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04605548967422227</v>
+        <v>0.03238186646517333</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>882510844.8335224</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3135960715.480785</v>
+        <v>3523755361.830024</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08873765034463538</v>
+        <v>0.0917623498355719</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03600969169171882</v>
+        <v>0.0420252453533357</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>59</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1567980341.249113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3437643422.390928</v>
+        <v>3305835360.50421</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1121707037175687</v>
+        <v>0.1585483522509123</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02253755853712342</v>
+        <v>0.02359124810222296</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>53</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1718821738.738459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1808725741.365523</v>
+        <v>1705084899.047917</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1345539978814582</v>
+        <v>0.134364771415433</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02914401559455589</v>
+        <v>0.03754542886155932</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>904362852.7375571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5164352744.047715</v>
+        <v>3977038493.928512</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07533821851930514</v>
+        <v>0.09703274613638174</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02200848264824277</v>
+        <v>0.03003600721846016</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>36</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2582176405.55508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1859883216.08664</v>
+        <v>1766435886.774534</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1716693786940701</v>
+        <v>0.1407884747623556</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03177160401672553</v>
+        <v>0.02464110386648524</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>929941648.8337466</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4793882896.598838</v>
+        <v>4026658304.997161</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09155648022496926</v>
+        <v>0.1052044200200505</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04866396890177779</v>
+        <v>0.05586935222425054</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>54</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2396941357.190068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1678339730.866964</v>
+        <v>1760523340.19405</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1564943356068056</v>
+        <v>0.1638457982326776</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02933971002580966</v>
+        <v>0.02597997084171963</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>839169930.809816</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5444234567.906952</v>
+        <v>3837300291.09985</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0822345277339467</v>
+        <v>0.1020059827239463</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0277180526481167</v>
+        <v>0.03566954146471175</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>33</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2722117355.2274</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4686221948.682055</v>
+        <v>4585162419.710013</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1137816341595599</v>
+        <v>0.1140561852026085</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02949884972686442</v>
+        <v>0.02738190439308032</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2343110963.006475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4764514227.464003</v>
+        <v>5164539136.494761</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1465436277030372</v>
+        <v>0.1645685719780409</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02488172197808212</v>
+        <v>0.01855889673471633</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2382257110.783433</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1797077980.895599</v>
+        <v>1518648291.233714</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1100374763879454</v>
+        <v>0.1285415949588682</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03081880509854386</v>
+        <v>0.02995560839052456</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>898538950.4650555</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2104009017.399566</v>
+        <v>2131242161.179327</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1205937368775085</v>
+        <v>0.1036633736917808</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04753333319544729</v>
+        <v>0.03583105658299889</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1052004498.443004</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2483654746.458775</v>
+        <v>3640720219.491195</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1236650531942291</v>
+        <v>0.1533477037104594</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05447836556569098</v>
+        <v>0.04310215437529693</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>60</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1241827376.337697</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2510613634.713081</v>
+        <v>2261826340.86584</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1486210787814592</v>
+        <v>0.1692153116333658</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01976214175410737</v>
+        <v>0.02653060419296898</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>19</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1255306915.966109</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>914941906.0142891</v>
+        <v>1013396762.01975</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1379772835179335</v>
+        <v>0.1440766409570376</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03952533596566251</v>
+        <v>0.03994295553090531</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>457470935.4963321</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3728984540.264668</v>
+        <v>2347176679.113067</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1192034163910801</v>
+        <v>0.1668497456800102</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02769115722122482</v>
+        <v>0.03462273761477676</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>62</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1864492372.569796</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3009469020.855765</v>
+        <v>3293671104.126872</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1293434913367818</v>
+        <v>0.1398921266722926</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02626500205802908</v>
+        <v>0.0418439095818606</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>53</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1504734547.809443</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1434916644.765936</v>
+        <v>1492346712.468636</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1001492619960622</v>
+        <v>0.0877384810852859</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04747950626118735</v>
+        <v>0.04353617534174491</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>717458289.1511176</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2090583886.423149</v>
+        <v>1906659636.17487</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1862602370006428</v>
+        <v>0.1589309777356299</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0599254785682593</v>
+        <v>0.0386244570801768</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1045291903.373922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2498289257.340751</v>
+        <v>2831495247.600574</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07269992268784552</v>
+        <v>0.1071112100425999</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03367706059525148</v>
+        <v>0.04016262950208242</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>39</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1249144612.484056</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4407840916.083284</v>
+        <v>3365516531.785331</v>
       </c>
       <c r="F93" t="n">
-        <v>0.119026678389322</v>
+        <v>0.1279711717324796</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03452240212544901</v>
+        <v>0.03928669172357648</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>48</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2203920432.268142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2324324872.471515</v>
+        <v>2407776934.150231</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1116205043532917</v>
+        <v>0.1548340247144536</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02943746407123671</v>
+        <v>0.03210441676559573</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1162162476.820956</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2822069274.284573</v>
+        <v>2202310485.058077</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09869848484772641</v>
+        <v>0.1266597647453553</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03848580405182953</v>
+        <v>0.04961722593620783</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>38</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1411034649.770426</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2326254324.031494</v>
+        <v>1738917598.973879</v>
       </c>
       <c r="F96" t="n">
-        <v>0.137375992629776</v>
+        <v>0.1070618235448598</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03161352749872861</v>
+        <v>0.04168578442187854</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1163127114.118185</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3324144900.350429</v>
+        <v>3935585637.243818</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1729839922296984</v>
+        <v>0.1110740528064768</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02614218125664688</v>
+        <v>0.02459053571598137</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1662072452.16719</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3898630893.052262</v>
+        <v>3874498072.63464</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09393634803653025</v>
+        <v>0.110768620760629</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02616320910294957</v>
+        <v>0.02493523945911038</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>41</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1949315492.115369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2338205506.002163</v>
+        <v>2354042365.137393</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09213889382450133</v>
+        <v>0.1087632276403458</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03444402372218599</v>
+        <v>0.0348149452214283</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>50</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1169102690.967446</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3497202861.305283</v>
+        <v>4410776683.104846</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1426319217582919</v>
+        <v>0.1264003670399791</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02017032185535304</v>
+        <v>0.02150722834351496</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>48</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1748601461.144938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2195824955.146072</v>
+        <v>2413961736.20146</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2215689348934405</v>
+        <v>0.1607394761186597</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0524911609120433</v>
+        <v>0.04505054137316827</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>65</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1097912460.359015</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_157.xlsx
+++ b/output/fit_clients/fit_round_157.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1972546344.748671</v>
+        <v>2197330563.916166</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0791002416431766</v>
+        <v>0.09494994197342595</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03561928105439142</v>
+        <v>0.04555760505673478</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1683930904.029925</v>
+        <v>1906089419.076269</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1405658647756727</v>
+        <v>0.1482351841134952</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0425033668086204</v>
+        <v>0.0454565740980738</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3758333400.186787</v>
+        <v>3371175324.772139</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1067577668078946</v>
+        <v>0.1064083623981355</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0381504894097913</v>
+        <v>0.0308442952959061</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2665314108.495054</v>
+        <v>2886956806.978667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06805157905109266</v>
+        <v>0.06705039137682112</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04030714072734826</v>
+        <v>0.04987372669391378</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2457612933.994874</v>
+        <v>2216263286.769958</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1220749518903774</v>
+        <v>0.1273954659449209</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04798115131053163</v>
+        <v>0.05452213036753427</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2852953516.314184</v>
+        <v>2960399563.429912</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0925996421029536</v>
+        <v>0.1009454246041101</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03450698833121642</v>
+        <v>0.04283259473554664</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3216298559.293036</v>
+        <v>3976487209.566458</v>
       </c>
       <c r="F8" t="n">
-        <v>0.148258189505373</v>
+        <v>0.1821317817445482</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02522950038884926</v>
+        <v>0.02623511214561993</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1439704642.952141</v>
+        <v>1623676318.015297</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1558921064638837</v>
+        <v>0.1784785382025382</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03728893236735443</v>
+        <v>0.03737057468461047</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5256617305.828771</v>
+        <v>4769960181.050388</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1311896358694776</v>
+        <v>0.2140287848611354</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03429112636780079</v>
+        <v>0.04786941568729126</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3716754192.916615</v>
+        <v>3270168403.769962</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1676439439937725</v>
+        <v>0.134954623314229</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04129520835201735</v>
+        <v>0.04229338069491345</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3038104425.643487</v>
+        <v>2871508475.131378</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1659763010342532</v>
+        <v>0.1375970446597061</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04532653211857966</v>
+        <v>0.04676776021851525</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3350900089.633649</v>
+        <v>5116738356.186829</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1004641325772668</v>
+        <v>0.07942175238377532</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02213890533675886</v>
+        <v>0.02134297519805634</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3534223192.290728</v>
+        <v>3166886538.304578</v>
       </c>
       <c r="F14" t="n">
-        <v>0.141257996590391</v>
+        <v>0.1369191704701429</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03408572599416906</v>
+        <v>0.033652448992286</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1252822009.079889</v>
+        <v>1506041390.454619</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1049404099874737</v>
+        <v>0.0708720617414858</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0448955353012918</v>
+        <v>0.04459027762981412</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2012515460.854097</v>
+        <v>2142507054.090594</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1058076523388978</v>
+        <v>0.07982277237962124</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04615907752924996</v>
+        <v>0.04804482395755541</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5220336756.376232</v>
+        <v>4606424131.501143</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1479453905913073</v>
+        <v>0.1307251571696269</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04387038160313089</v>
+        <v>0.04368443512822678</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2479594146.714291</v>
+        <v>2572672821.540101</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1308318569972296</v>
+        <v>0.1288461020087551</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03208014906229979</v>
+        <v>0.0327176779341745</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1196821429.414167</v>
+        <v>1123932045.460251</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1194639176657376</v>
+        <v>0.1596362593388811</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02010481620637735</v>
+        <v>0.02108875688539564</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2083591820.755805</v>
+        <v>1934208766.46653</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1019920446193076</v>
+        <v>0.1392787370993449</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02423937084604956</v>
+        <v>0.02149931896610878</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2435983016.038087</v>
+        <v>1950562656.959076</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07441809215009421</v>
+        <v>0.0966340556690494</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04545886516314247</v>
+        <v>0.03773123125468398</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3938435259.712483</v>
+        <v>3449676870.004158</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1308990789852525</v>
+        <v>0.1164887265736655</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05711779328281093</v>
+        <v>0.0406792890207452</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1174732327.814668</v>
+        <v>1171236735.024636</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1680010127370446</v>
+        <v>0.1258606904118088</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05163379052725871</v>
+        <v>0.04328566233676041</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3542992017.57072</v>
+        <v>2521665545.71744</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1406243808296069</v>
+        <v>0.1372818320265404</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02692608814497909</v>
+        <v>0.02280630150835428</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1324232867.975172</v>
+        <v>1446233718.375184</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07874664179273658</v>
+        <v>0.1023939789277342</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02789005881054117</v>
+        <v>0.02995099498873589</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1313297381.306219</v>
+        <v>1023870004.635777</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1183056009762578</v>
+        <v>0.09576341550750821</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03492388462258966</v>
+        <v>0.03238385713535046</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2929512176.408831</v>
+        <v>4524959216.508921</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1019078146701169</v>
+        <v>0.1333912026555623</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01734304463797484</v>
+        <v>0.01956676425032373</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3824835807.016164</v>
+        <v>3160470202.28302</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09751260635400798</v>
+        <v>0.1163887403853635</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03800225417476224</v>
+        <v>0.03759849658772431</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3889233426.060304</v>
+        <v>5402050382.795413</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1268916473740796</v>
+        <v>0.1491411752714579</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04659732856947552</v>
+        <v>0.03658103538955506</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1664238205.636298</v>
+        <v>2294153984.530647</v>
       </c>
       <c r="F30" t="n">
-        <v>0.136904434561975</v>
+        <v>0.140112353739292</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03400880051411152</v>
+        <v>0.02496583910162096</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>940665526.450615</v>
+        <v>1072013733.322653</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07740134231465937</v>
+        <v>0.08780204169536185</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0500629177569523</v>
+        <v>0.04797953500368309</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1431191991.654083</v>
+        <v>1306946484.171755</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1047615858026298</v>
+        <v>0.08415124803051405</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03699586060003933</v>
+        <v>0.03586078103307799</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2712817473.325935</v>
+        <v>2792663603.177279</v>
       </c>
       <c r="F33" t="n">
-        <v>0.145434029603446</v>
+        <v>0.1851551032572848</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04370197361079273</v>
+        <v>0.03952083209278182</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1492828364.171632</v>
+        <v>1145802532.99933</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1169613095420872</v>
+        <v>0.09158173995514643</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0265642150054878</v>
+        <v>0.01935652914676948</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1178015168.936353</v>
+        <v>892830843.5957474</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07825378144442315</v>
+        <v>0.08489865789634117</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03184194021953071</v>
+        <v>0.03442919547298567</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3089177952.8246</v>
+        <v>3148242664.599806</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1175609917300575</v>
+        <v>0.1627785587654003</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02364174301555502</v>
+        <v>0.02867117336965542</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2136934898.030931</v>
+        <v>1816540947.476883</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08765929591953872</v>
+        <v>0.07547385904496244</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03629766274238129</v>
+        <v>0.03138231480238676</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1708756884.421402</v>
+        <v>1757268041.7802</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09760955226801314</v>
+        <v>0.1143621403117369</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03290009316109362</v>
+        <v>0.03770268787797611</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1872596460.502449</v>
+        <v>1905845122.200087</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1648584670263187</v>
+        <v>0.1244920593734219</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02149730307438234</v>
+        <v>0.02782834219943947</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1544357212.781723</v>
+        <v>1754413211.97192</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1057307313115127</v>
+        <v>0.09944491508855001</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04511233351998602</v>
+        <v>0.04158606076569608</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2049581319.488101</v>
+        <v>1969005112.858155</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1238614955114367</v>
+        <v>0.1378513202137225</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04256924478262761</v>
+        <v>0.02869278277999732</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3377928654.890075</v>
+        <v>3496364592.919105</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09042987701878569</v>
+        <v>0.09714390441669216</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03369601218642534</v>
+        <v>0.04331710362284621</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2543728697.922081</v>
+        <v>2789831233.55165</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1953292183654521</v>
+        <v>0.133881482867345</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01616784648057569</v>
+        <v>0.01837109452125807</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1698321080.519901</v>
+        <v>1898711754.114947</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0892705727610055</v>
+        <v>0.09927175909397118</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03481988923770309</v>
+        <v>0.02728264916618624</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1905291331.25352</v>
+        <v>2489783575.349282</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1534044914165752</v>
+        <v>0.11738599785975</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04177681830375915</v>
+        <v>0.04668773446113154</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4605520577.244393</v>
+        <v>3478034906.99328</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1384584243515764</v>
+        <v>0.1151726725256177</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05654966686848604</v>
+        <v>0.05865152540778524</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3649229492.789872</v>
+        <v>3754758594.018833</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1566928554965875</v>
+        <v>0.1459224971038623</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03856768192043172</v>
+        <v>0.05024586840725491</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4117201060.605629</v>
+        <v>3745799731.845037</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08521986354106854</v>
+        <v>0.1046321356135304</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03128153007231563</v>
+        <v>0.02811191577012181</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1254822048.528279</v>
+        <v>1655396602.702207</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1540099254178887</v>
+        <v>0.1359125234232854</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03394719475944133</v>
+        <v>0.03274156845794824</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3704129566.554585</v>
+        <v>3650320082.46014</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1321928519450855</v>
+        <v>0.1399321825379606</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04104909753882759</v>
+        <v>0.0419031041573844</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1403005982.07047</v>
+        <v>1135487021.533835</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1854428372954383</v>
+        <v>0.1359060554338452</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03931862470321025</v>
+        <v>0.03661073910366132</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3561264565.615289</v>
+        <v>5055714799.135407</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1141337816071207</v>
+        <v>0.127103578002998</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06209630834967917</v>
+        <v>0.04901379580448017</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2376476412.339832</v>
+        <v>3009938318.771792</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1465001840338639</v>
+        <v>0.2029470059845642</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02307822714088122</v>
+        <v>0.02444263397739418</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3998584534.941833</v>
+        <v>3780485357.345048</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1603902729796328</v>
+        <v>0.1047236408960559</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04840289243971956</v>
+        <v>0.03238526548860559</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4593803345.202418</v>
+        <v>4419969975.426052</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2213634571003836</v>
+        <v>0.1544937457140085</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02406393410421597</v>
+        <v>0.02020146346222062</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1435754203.921098</v>
+        <v>1486928677.547909</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1375239092037814</v>
+        <v>0.119562285033583</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0480803980527609</v>
+        <v>0.04452420385950189</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3097304428.857175</v>
+        <v>4267017400.197575</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1543331732303996</v>
+        <v>0.1397797444160487</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02633485952743831</v>
+        <v>0.02596615364968126</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1676782340.452219</v>
+        <v>1209856543.659063</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1703154181791987</v>
+        <v>0.1995867990968166</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02599737940145229</v>
+        <v>0.02937643557623265</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4308541903.390504</v>
+        <v>4713122479.130074</v>
       </c>
       <c r="F59" t="n">
-        <v>0.113897328401337</v>
+        <v>0.1159507779456879</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04097887433873303</v>
+        <v>0.04206323450340477</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2300962244.544855</v>
+        <v>2894623317.508121</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2061779610199814</v>
+        <v>0.1858373737756453</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02034236557129322</v>
+        <v>0.0325003322616853</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2290980591.69762</v>
+        <v>3025486618.232124</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1691642087719113</v>
+        <v>0.1582827825889548</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02081323307355977</v>
+        <v>0.02855065960914457</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2051477599.758615</v>
+        <v>1447876276.628702</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1938551412642977</v>
+        <v>0.1722443998195705</v>
       </c>
       <c r="G62" t="n">
-        <v>0.030393899728677</v>
+        <v>0.03221329330595661</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4575839912.20174</v>
+        <v>4622036182.183156</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1017580460660625</v>
+        <v>0.075911774967413</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03686571399220871</v>
+        <v>0.045429808547883</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5072993083.740051</v>
+        <v>5061130513.905231</v>
       </c>
       <c r="F64" t="n">
-        <v>0.156057694870881</v>
+        <v>0.1505823986160731</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02304462838914055</v>
+        <v>0.02471386086128498</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4544089341.052322</v>
+        <v>3931936661.228531</v>
       </c>
       <c r="F65" t="n">
-        <v>0.165168121049355</v>
+        <v>0.1708461892575548</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02373709646359976</v>
+        <v>0.02831987238353119</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3957251953.510652</v>
+        <v>4446984547.578339</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1410532551385298</v>
+        <v>0.1014245624672383</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04152730863532857</v>
+        <v>0.03990179613559456</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3133607271.950042</v>
+        <v>3184840775.124399</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07677314627414668</v>
+        <v>0.0716044606916886</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04773360468705791</v>
+        <v>0.04413844579837144</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4556947974.776254</v>
+        <v>3676986538.285239</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1321719767878833</v>
+        <v>0.09782606541733974</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03793671315913313</v>
+        <v>0.03119100003157839</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1561206194.346698</v>
+        <v>2127882631.949879</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1772790085190457</v>
+        <v>0.1776100627403273</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05519174163878513</v>
+        <v>0.03773237296500688</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2832680629.110842</v>
+        <v>2619400383.344089</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07991023139009773</v>
+        <v>0.08627814051889579</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03112919269383365</v>
+        <v>0.04164553864376484</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4048661614.223803</v>
+        <v>5179240497.074444</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1308176164978168</v>
+        <v>0.1729402009800476</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02696602257234537</v>
+        <v>0.03033335587497558</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1941037517.520491</v>
+        <v>2139181697.308408</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1085060916938553</v>
+        <v>0.08753774733446197</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03238186646517333</v>
+        <v>0.03614595813001564</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3523755361.830024</v>
+        <v>2460230204.075804</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0917623498355719</v>
+        <v>0.08068702204200406</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0420252453533357</v>
+        <v>0.04937229666092568</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3305835360.50421</v>
+        <v>3005741090.225909</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1585483522509123</v>
+        <v>0.1272985194375666</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02359124810222296</v>
+        <v>0.03088528699495651</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1705084899.047917</v>
+        <v>2337224046.540897</v>
       </c>
       <c r="F75" t="n">
-        <v>0.134364771415433</v>
+        <v>0.1281070614176742</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03754542886155932</v>
+        <v>0.03433269257757784</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3977038493.928512</v>
+        <v>3807431704.586356</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09703274613638174</v>
+        <v>0.1155834366042214</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03003600721846016</v>
+        <v>0.03198349620687316</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1766435886.774534</v>
+        <v>1827259037.70289</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1407884747623556</v>
+        <v>0.1750021267334876</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02464110386648524</v>
+        <v>0.02973006106739884</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4026658304.997161</v>
+        <v>3304246088.59643</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1052044200200505</v>
+        <v>0.08318710662128975</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05586935222425054</v>
+        <v>0.03866887541932609</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1760523340.19405</v>
+        <v>1300735048.02334</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1638457982326776</v>
+        <v>0.148588191146457</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02597997084171963</v>
+        <v>0.03412552688084846</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3837300291.09985</v>
+        <v>5185660796.596663</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1020059827239463</v>
+        <v>0.08300090276918247</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03566954146471175</v>
+        <v>0.02506849885812558</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4585162419.710013</v>
+        <v>4258261789.258645</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1140561852026085</v>
+        <v>0.11052633509005</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02738190439308032</v>
+        <v>0.03089266407356522</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5164539136.494761</v>
+        <v>4577807614.24258</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1645685719780409</v>
+        <v>0.160485656326442</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01855889673471633</v>
+        <v>0.02314281837777172</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1518648291.233714</v>
+        <v>2343033288.819746</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1285415949588682</v>
+        <v>0.1311637911804348</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02995560839052456</v>
+        <v>0.02762853788054608</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2131242161.179327</v>
+        <v>1680325187.675982</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1036633736917808</v>
+        <v>0.0944447486674385</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03583105658299889</v>
+        <v>0.04307604784804926</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3640720219.491195</v>
+        <v>3653368210.272405</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1533477037104594</v>
+        <v>0.1721926235212556</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04310215437529693</v>
+        <v>0.04950308690865183</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2261826340.86584</v>
+        <v>2396679190.6675</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1692153116333658</v>
+        <v>0.137212353465122</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02653060419296898</v>
+        <v>0.01720358410460658</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1013396762.01975</v>
+        <v>1025023236.84338</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1440766409570376</v>
+        <v>0.1355041014830091</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03994295553090531</v>
+        <v>0.03271035908871842</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2347176679.113067</v>
+        <v>2516931007.717506</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1668497456800102</v>
+        <v>0.1310467448715398</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03462273761477676</v>
+        <v>0.02993004947462717</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3293671104.126872</v>
+        <v>2511012859.387666</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1398921266722926</v>
+        <v>0.1461881346692357</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0418439095818606</v>
+        <v>0.04186665028221295</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1492346712.468636</v>
+        <v>1456076721.419203</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0877384810852859</v>
+        <v>0.08424833551243154</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04353617534174491</v>
+        <v>0.04802214133823546</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1906659636.17487</v>
+        <v>1559625268.74636</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1589309777356299</v>
+        <v>0.1768495867032482</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0386244570801768</v>
+        <v>0.04948690744589373</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2831495247.600574</v>
+        <v>1904871297.532276</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1071112100425999</v>
+        <v>0.0939342709247438</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04016262950208242</v>
+        <v>0.0467036013625299</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3365516531.785331</v>
+        <v>4115753050.473053</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1279711717324796</v>
+        <v>0.1404663773968725</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03928669172357648</v>
+        <v>0.05128837767156992</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2407776934.150231</v>
+        <v>2341297801.700344</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1548340247144536</v>
+        <v>0.1277529626724531</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03210441676559573</v>
+        <v>0.03490957760980471</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2202310485.058077</v>
+        <v>2650444994.658687</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1266597647453553</v>
+        <v>0.08996166446178226</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04961722593620783</v>
+        <v>0.05186039785173301</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1738917598.973879</v>
+        <v>2145036202.914478</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1070618235448598</v>
+        <v>0.0990951944620274</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04168578442187854</v>
+        <v>0.03493734674353099</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3935585637.243818</v>
+        <v>4883756822.604507</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1110740528064768</v>
+        <v>0.1411398351026605</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02459053571598137</v>
+        <v>0.02593000683394894</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3874498072.63464</v>
+        <v>3484096737.663737</v>
       </c>
       <c r="F98" t="n">
-        <v>0.110768620760629</v>
+        <v>0.1066163467977044</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02493523945911038</v>
+        <v>0.02816962990330044</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2354042365.137393</v>
+        <v>2407535491.46541</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1087632276403458</v>
+        <v>0.1005070645056491</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0348149452214283</v>
+        <v>0.02592066293065311</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4410776683.104846</v>
+        <v>4282706380.380648</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1264003670399791</v>
+        <v>0.171109638313889</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02150722834351496</v>
+        <v>0.02645533756463946</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2413961736.20146</v>
+        <v>2360024083.150679</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1607394761186597</v>
+        <v>0.1444471823701256</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04505054137316827</v>
+        <v>0.05452404008037966</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_157.xlsx
+++ b/output/fit_clients/fit_round_157.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2197330563.916166</v>
+        <v>2094175747.914657</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09494994197342595</v>
+        <v>0.07025284130725566</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04555760505673478</v>
+        <v>0.03898444821751629</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1906089419.076269</v>
+        <v>1884268542.58378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1482351841134952</v>
+        <v>0.12728685100923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0454565740980738</v>
+        <v>0.04720720423861032</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3371175324.772139</v>
+        <v>3569015767.309455</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1064083623981355</v>
+        <v>0.1347815875239801</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0308442952959061</v>
+        <v>0.03684829652281284</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>157</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2886956806.978667</v>
+        <v>3664186894.846999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06705039137682112</v>
+        <v>0.08082457739573232</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04987372669391378</v>
+        <v>0.04556539723179031</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>65</v>
+      </c>
+      <c r="J5" t="n">
+        <v>156</v>
+      </c>
+      <c r="K5" t="n">
+        <v>131.2922077497799</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2216263286.769958</v>
+        <v>2155619830.199753</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1273954659449209</v>
+        <v>0.0955793682062399</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05452213036753427</v>
+        <v>0.04304146661899405</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2960399563.429912</v>
+        <v>2121239270.395636</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1009454246041101</v>
+        <v>0.1012657633844454</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04283259473554664</v>
+        <v>0.03915648640205541</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3976487209.566458</v>
+        <v>2612700782.495237</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1821317817445482</v>
+        <v>0.1761082110107187</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02623511214561993</v>
+        <v>0.03058010935811493</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>154</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1623676318.015297</v>
+        <v>1926495791.440457</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1784785382025382</v>
+        <v>0.1693452409560309</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03737057468461047</v>
+        <v>0.02548939891730319</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4769960181.050388</v>
+        <v>3997516700.337343</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2140287848611354</v>
+        <v>0.1818143206747103</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04786941568729126</v>
+        <v>0.05080795777988906</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>144</v>
+      </c>
+      <c r="J10" t="n">
+        <v>157</v>
+      </c>
+      <c r="K10" t="n">
+        <v>148.142175021257</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3270168403.769962</v>
+        <v>2873619921.541698</v>
       </c>
       <c r="F11" t="n">
-        <v>0.134954623314229</v>
+        <v>0.1313511705226273</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04229338069491345</v>
+        <v>0.03247626166226125</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>154</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2871508475.131378</v>
+        <v>3150009687.96786</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1375970446597061</v>
+        <v>0.1287243746558906</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04676776021851525</v>
+        <v>0.04290829847173332</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5116738356.186829</v>
+        <v>3404281548.8144</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07942175238377532</v>
+        <v>0.06851392932110709</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02134297519805634</v>
+        <v>0.02577367616692532</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>76</v>
+      </c>
+      <c r="J13" t="n">
+        <v>157</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3166886538.304578</v>
+        <v>2760993914.268691</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1369191704701429</v>
+        <v>0.1369437097168092</v>
       </c>
       <c r="G14" t="n">
-        <v>0.033652448992286</v>
+        <v>0.03703670480193193</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>151</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1506041390.454619</v>
+        <v>1749007605.867533</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0708720617414858</v>
+        <v>0.09949986952680892</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04459027762981412</v>
+        <v>0.04603403128206281</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2142507054.090594</v>
+        <v>2015498936.510467</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07982277237962124</v>
+        <v>0.08484787325592216</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04804482395755541</v>
+        <v>0.03533067836986865</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4606424131.501143</v>
+        <v>4518563591.085858</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1307251571696269</v>
+        <v>0.1595788354660791</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04368443512822678</v>
+        <v>0.03792274056051384</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>76</v>
+      </c>
+      <c r="J17" t="n">
+        <v>156</v>
+      </c>
+      <c r="K17" t="n">
+        <v>122.4814701115806</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2572672821.540101</v>
+        <v>3545059276.956534</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1288461020087551</v>
+        <v>0.1701989598132832</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0327176779341745</v>
+        <v>0.03084170323577647</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>39</v>
+      </c>
+      <c r="J18" t="n">
+        <v>157</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1123932045.460251</v>
+        <v>850700876.131496</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1596362593388811</v>
+        <v>0.1861683171435572</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02108875688539564</v>
+        <v>0.02056384702149218</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1934208766.46653</v>
+        <v>2797377847.016068</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1392787370993449</v>
+        <v>0.152713179172809</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02149931896610878</v>
+        <v>0.02122616875584994</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1950562656.959076</v>
+        <v>1900217400.358085</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0966340556690494</v>
+        <v>0.09812872248278028</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03773123125468398</v>
+        <v>0.04052816630142708</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3449676870.004158</v>
+        <v>3297370015.809383</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1164887265736655</v>
+        <v>0.1143266685861064</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0406792890207452</v>
+        <v>0.03776053556460134</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>40</v>
+      </c>
+      <c r="J22" t="n">
+        <v>156</v>
+      </c>
+      <c r="K22" t="n">
+        <v>85.26132984782927</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1171236735.024636</v>
+        <v>1173449526.135404</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1258606904118088</v>
+        <v>0.1237698858260382</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04328566233676041</v>
+        <v>0.03423592730122119</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2521665545.71744</v>
+        <v>3634076725.894387</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1372818320265404</v>
+        <v>0.1158790557152138</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02280630150835428</v>
+        <v>0.03146199925914284</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>46</v>
+      </c>
+      <c r="J24" t="n">
+        <v>157</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1446233718.375184</v>
+        <v>1474581941.05842</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1023939789277342</v>
+        <v>0.07710862144177622</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02995099498873589</v>
+        <v>0.01937972820914731</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1023870004.635777</v>
+        <v>1214681771.811921</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09576341550750821</v>
+        <v>0.1097097652043937</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03238385713535046</v>
+        <v>0.03372563507709177</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4524959216.508921</v>
+        <v>3286111385.708375</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1333912026555623</v>
+        <v>0.1369833372320357</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01956676425032373</v>
+        <v>0.02565425238314332</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>62</v>
+      </c>
+      <c r="J27" t="n">
+        <v>155</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3160470202.28302</v>
+        <v>3741696934.846684</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1163887403853635</v>
+        <v>0.140349791410477</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03759849658772431</v>
+        <v>0.04281798316632326</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>156</v>
+      </c>
+      <c r="K28" t="n">
+        <v>121.4390430966675</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5402050382.795413</v>
+        <v>5268922486.659992</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1491411752714579</v>
+        <v>0.1073160717043233</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03658103538955506</v>
+        <v>0.02939765243890905</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>146</v>
+      </c>
+      <c r="J29" t="n">
+        <v>157</v>
+      </c>
+      <c r="K29" t="n">
+        <v>158.3296675601592</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2294153984.530647</v>
+        <v>1789987172.458695</v>
       </c>
       <c r="F30" t="n">
-        <v>0.140112353739292</v>
+        <v>0.1299114428666954</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02496583910162096</v>
+        <v>0.0253056266793188</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1072013733.322653</v>
+        <v>930516715.7561463</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08780204169536185</v>
+        <v>0.08604289705670407</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04797953500368309</v>
+        <v>0.03366415913542071</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1306946484.171755</v>
+        <v>1274420373.368026</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08415124803051405</v>
+        <v>0.1162544639793361</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03586078103307799</v>
+        <v>0.03663181619653336</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2792663603.177279</v>
+        <v>2956026080.374936</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1851551032572848</v>
+        <v>0.1585370314014329</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03952083209278182</v>
+        <v>0.05299016574366514</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1145802532.99933</v>
+        <v>1532867410.897854</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09158173995514643</v>
+        <v>0.1084615923525176</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01935652914676948</v>
+        <v>0.01753277089053821</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>892830843.5957474</v>
+        <v>1180624187.189014</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08489865789634117</v>
+        <v>0.08335850902701744</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03442919547298567</v>
+        <v>0.03324622565025188</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3148242664.599806</v>
+        <v>2179804186.165773</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1627785587654003</v>
+        <v>0.1578733152173822</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02867117336965542</v>
+        <v>0.02777153575320044</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1816540947.476883</v>
+        <v>2781100137.714321</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07547385904496244</v>
+        <v>0.09399291451850396</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03138231480238676</v>
+        <v>0.02859418469932584</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1757268041.7802</v>
+        <v>1790943005.281176</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1143621403117369</v>
+        <v>0.08753600229577238</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03770268787797611</v>
+        <v>0.03461357996021168</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1905845122.200087</v>
+        <v>1850595801.893872</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1244920593734219</v>
+        <v>0.1634426039972078</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02782834219943947</v>
+        <v>0.02640907272203449</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1754413211.97192</v>
+        <v>1418178543.721257</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09944491508855001</v>
+        <v>0.129411406057397</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04158606076569608</v>
+        <v>0.04622929906414131</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1969005112.858155</v>
+        <v>2896868362.775828</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1378513202137225</v>
+        <v>0.1262866779724058</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02869278277999732</v>
+        <v>0.04507068458543501</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1913,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3496364592.919105</v>
+        <v>3404894698.823449</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09714390441669216</v>
+        <v>0.104367090978027</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04331710362284621</v>
+        <v>0.04604060874600992</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>57</v>
+      </c>
+      <c r="J42" t="n">
+        <v>157</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2789831233.55165</v>
+        <v>2773802161.553609</v>
       </c>
       <c r="F43" t="n">
-        <v>0.133881482867345</v>
+        <v>0.2009377482231275</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01837109452125807</v>
+        <v>0.02536399495675057</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1898711754.114947</v>
+        <v>2019088886.370308</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09927175909397118</v>
+        <v>0.09934934947937094</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02728264916618624</v>
+        <v>0.02734032553444166</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2489783575.349282</v>
+        <v>1722056977.600253</v>
       </c>
       <c r="F45" t="n">
-        <v>0.11738599785975</v>
+        <v>0.1536921149690896</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04668773446113154</v>
+        <v>0.05487156385242318</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3478034906.99328</v>
+        <v>4661213956.233023</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1151726725256177</v>
+        <v>0.1164339524977035</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05865152540778524</v>
+        <v>0.04307195965820709</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>89</v>
+      </c>
+      <c r="J46" t="n">
+        <v>156</v>
+      </c>
+      <c r="K46" t="n">
+        <v>137.5012402077805</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3754758594.018833</v>
+        <v>4860281585.136869</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1459224971038623</v>
+        <v>0.1271779748444106</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05024586840725491</v>
+        <v>0.03610485987298149</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>69</v>
+      </c>
+      <c r="J47" t="n">
+        <v>157</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3745799731.845037</v>
+        <v>4255915058.753534</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1046321356135304</v>
+        <v>0.1030893717262688</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02811191577012181</v>
+        <v>0.0290002376337388</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>70</v>
+      </c>
+      <c r="J48" t="n">
+        <v>157</v>
+      </c>
+      <c r="K48" t="n">
+        <v>138.4300930202111</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1655396602.702207</v>
+        <v>1734784785.800837</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1359125234232854</v>
+        <v>0.1628014763776709</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03274156845794824</v>
+        <v>0.04381638331595162</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3650320082.46014</v>
+        <v>3280511590.950905</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1399321825379606</v>
+        <v>0.1763724836362724</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0419031041573844</v>
+        <v>0.03337487331326769</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>52</v>
+      </c>
+      <c r="J50" t="n">
+        <v>155</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1135487021.533835</v>
+        <v>1214440580.639016</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1359060554338452</v>
+        <v>0.1536064516548442</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03661073910366132</v>
+        <v>0.05447520596341496</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5055714799.135407</v>
+        <v>3871042798.598014</v>
       </c>
       <c r="F52" t="n">
-        <v>0.127103578002998</v>
+        <v>0.1204811396103431</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04901379580448017</v>
+        <v>0.06048427796044931</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>114</v>
+      </c>
+      <c r="J52" t="n">
+        <v>157</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3009938318.771792</v>
+        <v>2353678888.700775</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2029470059845642</v>
+        <v>0.1946736261297024</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02444263397739418</v>
+        <v>0.02868734665114229</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>151</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3780485357.345048</v>
+        <v>3800709687.919851</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1047236408960559</v>
+        <v>0.1357297250056704</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03238526548860559</v>
+        <v>0.03652734903094711</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>76</v>
+      </c>
+      <c r="J54" t="n">
+        <v>156</v>
+      </c>
+      <c r="K54" t="n">
+        <v>128.4095621271109</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4419969975.426052</v>
+        <v>3008614172.800879</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1544937457140085</v>
+        <v>0.1677404045829787</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02020146346222062</v>
+        <v>0.02580775544986584</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>72</v>
+      </c>
+      <c r="J55" t="n">
+        <v>156</v>
+      </c>
+      <c r="K55" t="n">
+        <v>74.47449967217683</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1486928677.547909</v>
+        <v>1285244952.706065</v>
       </c>
       <c r="F56" t="n">
-        <v>0.119562285033583</v>
+        <v>0.1010844031960487</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04452420385950189</v>
+        <v>0.03845842788945972</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4267017400.197575</v>
+        <v>3123622522.706509</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1397797444160487</v>
+        <v>0.1765649644213524</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02596615364968126</v>
+        <v>0.025681665295285</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>64</v>
+      </c>
+      <c r="J57" t="n">
+        <v>156</v>
+      </c>
+      <c r="K57" t="n">
+        <v>82.56098272634109</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1209856543.659063</v>
+        <v>1803770972.590019</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1995867990968166</v>
+        <v>0.1623905115694292</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02937643557623265</v>
+        <v>0.02971832421385201</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4713122479.130074</v>
+        <v>5270427707.955082</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1159507779456879</v>
+        <v>0.1115500476692504</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04206323450340477</v>
+        <v>0.04212938696390166</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>76</v>
+      </c>
+      <c r="J59" t="n">
+        <v>156</v>
+      </c>
+      <c r="K59" t="n">
+        <v>126.5178192202106</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2894623317.508121</v>
+        <v>3166905830.736941</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1858373737756453</v>
+        <v>0.1366551486033741</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0325003322616853</v>
+        <v>0.02499271280493269</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>150</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3025486618.232124</v>
+        <v>2763466220.641808</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1582827825889548</v>
+        <v>0.1434125095391619</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02855065960914457</v>
+        <v>0.0265160031285988</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>146</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1447876276.628702</v>
+        <v>2019112910.89651</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1722443998195705</v>
+        <v>0.1382754692533587</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03221329330595661</v>
+        <v>0.04147548299638527</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4622036182.183156</v>
+        <v>3485848240.894911</v>
       </c>
       <c r="F63" t="n">
-        <v>0.075911774967413</v>
+        <v>0.07238356533093469</v>
       </c>
       <c r="G63" t="n">
-        <v>0.045429808547883</v>
+        <v>0.04759172370297252</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>77</v>
+      </c>
+      <c r="J63" t="n">
+        <v>156</v>
+      </c>
+      <c r="K63" t="n">
+        <v>97.45823010305405</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5061130513.905231</v>
+        <v>5195830489.970998</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1505823986160731</v>
+        <v>0.172253108602809</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02471386086128498</v>
+        <v>0.03103260129822787</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>78</v>
+      </c>
+      <c r="J64" t="n">
+        <v>156</v>
+      </c>
+      <c r="K64" t="n">
+        <v>128.5722656141112</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2734,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3931936661.228531</v>
+        <v>5405084425.129277</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1708461892575548</v>
+        <v>0.1741601335610566</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02831987238353119</v>
+        <v>0.02702146812469348</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>129</v>
+      </c>
+      <c r="J65" t="n">
+        <v>157</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4446984547.578339</v>
+        <v>4406941965.351689</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1014245624672383</v>
+        <v>0.1462630768831628</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03990179613559456</v>
+        <v>0.0368456438159674</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>77</v>
+      </c>
+      <c r="J66" t="n">
+        <v>157</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3184840775.124399</v>
+        <v>3438143780.584581</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0716044606916886</v>
+        <v>0.08096475944465939</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04413844579837144</v>
+        <v>0.03891058702781822</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3676986538.285239</v>
+        <v>4194662549.340402</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09782606541733974</v>
+        <v>0.107183240056246</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03119100003157839</v>
+        <v>0.03185521253229942</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>79</v>
+      </c>
+      <c r="J68" t="n">
+        <v>156</v>
+      </c>
+      <c r="K68" t="n">
+        <v>127.7413372533123</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2127882631.949879</v>
+        <v>2237727095.796653</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1776100627403273</v>
+        <v>0.1251603902468834</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03773237296500688</v>
+        <v>0.05742875537236207</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2619400383.344089</v>
+        <v>3167351593.46402</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08627814051889579</v>
+        <v>0.07535980800135551</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04164553864376484</v>
+        <v>0.03716252838581332</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>148</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5179240497.074444</v>
+        <v>3964160009.847038</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1729402009800476</v>
+        <v>0.174212814285085</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03033335587497558</v>
+        <v>0.02615471066480448</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>123</v>
+      </c>
+      <c r="J71" t="n">
+        <v>157</v>
+      </c>
+      <c r="K71" t="n">
+        <v>139.0958373332694</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2139181697.308408</v>
+        <v>1896115901.011764</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08753774733446197</v>
+        <v>0.09665970348869551</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03614595813001564</v>
+        <v>0.03292551378094734</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2460230204.075804</v>
+        <v>2784727997.481238</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08068702204200406</v>
+        <v>0.07097535391998394</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04937229666092568</v>
+        <v>0.04450822506789455</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3005741090.225909</v>
+        <v>3663287936.362944</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1272985194375666</v>
+        <v>0.127235383639114</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03088528699495651</v>
+        <v>0.03385047784250041</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>47</v>
+      </c>
+      <c r="J74" t="n">
+        <v>157</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2337224046.540897</v>
+        <v>2025595548.172048</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1281070614176742</v>
+        <v>0.1662771060518374</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03433269257757784</v>
+        <v>0.02939811595962746</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3123,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3807431704.586356</v>
+        <v>5011199245.740586</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1155834366042214</v>
+        <v>0.09593699886520432</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03198349620687316</v>
+        <v>0.02492139893160375</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>72</v>
+      </c>
+      <c r="J76" t="n">
+        <v>156</v>
+      </c>
+      <c r="K76" t="n">
+        <v>112.0210644637669</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1827259037.70289</v>
+        <v>1909640360.259193</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1750021267334876</v>
+        <v>0.1793190740374457</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02973006106739884</v>
+        <v>0.03087030611604046</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3304246088.59643</v>
+        <v>2918243154.065142</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08318710662128975</v>
+        <v>0.0832164670470345</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03866887541932609</v>
+        <v>0.05329763239832504</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>79</v>
+      </c>
+      <c r="J78" t="n">
+        <v>155</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1300735048.02334</v>
+        <v>1612314108.236346</v>
       </c>
       <c r="F79" t="n">
-        <v>0.148588191146457</v>
+        <v>0.1632867561771696</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03412552688084846</v>
+        <v>0.03597661633469738</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5185660796.596663</v>
+        <v>5060883688.187837</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08300090276918247</v>
+        <v>0.09589530892326509</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02506849885812558</v>
+        <v>0.0288187701488645</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>76</v>
+      </c>
+      <c r="J80" t="n">
+        <v>157</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4258261789.258645</v>
+        <v>3815299996.150684</v>
       </c>
       <c r="F81" t="n">
-        <v>0.11052633509005</v>
+        <v>0.1340319094696958</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03089266407356522</v>
+        <v>0.02734399821674796</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>72</v>
+      </c>
+      <c r="J81" t="n">
+        <v>156</v>
+      </c>
+      <c r="K81" t="n">
+        <v>109.6892877889634</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4577807614.24258</v>
+        <v>5593896302.488249</v>
       </c>
       <c r="F82" t="n">
-        <v>0.160485656326442</v>
+        <v>0.1585578027329246</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02314281837777172</v>
+        <v>0.02012804498964379</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>114</v>
+      </c>
+      <c r="J82" t="n">
+        <v>157</v>
+      </c>
+      <c r="K82" t="n">
+        <v>145.2423676499848</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2343033288.819746</v>
+        <v>1990444705.711028</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1311637911804348</v>
+        <v>0.1169204408651971</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02762853788054608</v>
+        <v>0.0360978681407268</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1680325187.675982</v>
+        <v>1859053503.237365</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0944447486674385</v>
+        <v>0.07486631910408217</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04307604784804926</v>
+        <v>0.05203653203960844</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3653368210.272405</v>
+        <v>2903385724.641024</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1721926235212556</v>
+        <v>0.1671888320126209</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04950308690865183</v>
+        <v>0.047554766247928</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2396679190.6675</v>
+        <v>2563903663.983952</v>
       </c>
       <c r="F86" t="n">
-        <v>0.137212353465122</v>
+        <v>0.1318196778577517</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01720358410460658</v>
+        <v>0.02752245313129545</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1025023236.84338</v>
+        <v>1364679746.158556</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1355041014830091</v>
+        <v>0.1833928082785236</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03271035908871842</v>
+        <v>0.04043487345020765</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2516931007.717506</v>
+        <v>3352615740.49944</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1310467448715398</v>
+        <v>0.1141738840611949</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02993004947462717</v>
+        <v>0.02472428768273163</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>22</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2511012859.387666</v>
+        <v>2127950250.376782</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1461881346692357</v>
+        <v>0.1258963597053037</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04186665028221295</v>
+        <v>0.02907060322993573</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1456076721.419203</v>
+        <v>1592447429.948043</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08424833551243154</v>
+        <v>0.09455269198729294</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04802214133823546</v>
+        <v>0.0523176921334863</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1559625268.74636</v>
+        <v>1285125812.902687</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1768495867032482</v>
+        <v>0.1859673714142387</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04948690744589373</v>
+        <v>0.04751044072607422</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1904871297.532276</v>
+        <v>2385536165.716638</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0939342709247438</v>
+        <v>0.1067406766967994</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0467036013625299</v>
+        <v>0.03098575619618051</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4115753050.473053</v>
+        <v>3257078579.069016</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1404663773968725</v>
+        <v>0.0993014496820662</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05128837767156992</v>
+        <v>0.04061096591860634</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>71</v>
+      </c>
+      <c r="J93" t="n">
+        <v>156</v>
+      </c>
+      <c r="K93" t="n">
+        <v>87.34700020652538</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2341297801.700344</v>
+        <v>2479022146.415086</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1277529626724531</v>
+        <v>0.143746980807685</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03490957760980471</v>
+        <v>0.03135766643886655</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2650444994.658687</v>
+        <v>2444599446.061862</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08996166446178226</v>
+        <v>0.08745751984624021</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05186039785173301</v>
+        <v>0.04099284466781421</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2145036202.914478</v>
+        <v>2285102979.236033</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0990951944620274</v>
+        <v>0.1104442070836062</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03493734674353099</v>
+        <v>0.03517754817737335</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4883756822.604507</v>
+        <v>3591115026.96904</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1411398351026605</v>
+        <v>0.1535311963896865</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02593000683394894</v>
+        <v>0.02288442439717995</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>75</v>
+      </c>
+      <c r="J97" t="n">
+        <v>157</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3484096737.663737</v>
+        <v>3052738997.800502</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1066163467977044</v>
+        <v>0.126645648831548</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02816962990330044</v>
+        <v>0.02690455675764531</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>37</v>
+      </c>
+      <c r="J98" t="n">
+        <v>155</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2407535491.46541</v>
+        <v>2252932349.966601</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1005070645056491</v>
+        <v>0.1196371867869071</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02592066293065311</v>
+        <v>0.03030446903003328</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4282706380.380648</v>
+        <v>3788078732.298018</v>
       </c>
       <c r="F100" t="n">
-        <v>0.171109638313889</v>
+        <v>0.1647891502993073</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02645533756463946</v>
+        <v>0.01780621261913768</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>65</v>
+      </c>
+      <c r="J100" t="n">
+        <v>157</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2360024083.150679</v>
+        <v>2505874385.02719</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1444471823701256</v>
+        <v>0.157543399728849</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05452404008037966</v>
+        <v>0.03743924449452286</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>12</v>
+      </c>
+      <c r="J101" t="n">
+        <v>148</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
